--- a/1.xlsx
+++ b/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new_VKR_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studia Code programs\albom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549793F-4070-403E-974F-90670ADCF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AF5AD-0009-4C5A-85E2-EE217DD9649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1650" windowWidth="17490" windowHeight="9570" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>Группа ИБ-С20-1</t>
   </si>
   <si>
-    <t>Группа БИ-Б20-2</t>
-  </si>
-  <si>
-    <t>Группа КВ-Б21-1</t>
-  </si>
-  <si>
     <t>Группа КВ-Б21-2</t>
   </si>
   <si>
@@ -1397,6 +1391,12 @@
   </si>
   <si>
     <t>Технологии защиты информационных систем Миронов А.Ю. 104-2к</t>
+  </si>
+  <si>
+    <t>Пакеты</t>
+  </si>
+  <si>
+    <t>Каво</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1536,9 +1539,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:CG85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1904,267 +1904,267 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>84</v>
+      <c r="A2" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2172,10 +2172,10 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -2187,10 +2187,10 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -2200,28 +2200,28 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
@@ -2233,13 +2233,13 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
@@ -2259,13 +2259,13 @@
       <c r="BU2" s="3"/>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BZ2" s="3"/>
       <c r="CA2" s="3"/>
@@ -2275,21 +2275,21 @@
       <c r="CE2" s="3"/>
       <c r="CF2" s="3"/>
       <c r="CG2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2297,10 +2297,10 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2312,10 +2312,10 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -2324,33 +2324,33 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
@@ -2362,22 +2362,22 @@
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
       <c r="BC3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
@@ -2392,13 +2392,13 @@
       <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
       <c r="BW3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -2408,40 +2408,40 @@
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
       <c r="CG3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2452,42 +2452,42 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="X4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
@@ -2502,25 +2502,25 @@
       <c r="AZ4" s="3"/>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
@@ -2545,36 +2545,36 @@
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
       <c r="CG4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2585,40 +2585,40 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
@@ -2634,22 +2634,22 @@
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
       <c r="BC5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BF5" s="3"/>
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BJ5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
@@ -2657,7 +2657,7 @@
       <c r="BN5" s="3"/>
       <c r="BO5" s="3"/>
       <c r="BP5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
@@ -2676,25 +2676,25 @@
       <c r="CE5" s="3"/>
       <c r="CF5" s="3"/>
       <c r="CG5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2715,10 +2715,10 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
@@ -2758,13 +2758,13 @@
       <c r="BN6" s="3"/>
       <c r="BO6" s="3"/>
       <c r="BP6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
       <c r="BT6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
@@ -2779,25 +2779,25 @@
       <c r="CE6" s="3"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2874,13 +2874,13 @@
       <c r="CE7" s="3"/>
       <c r="CF7" s="3"/>
       <c r="CG7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2965,40 +2965,40 @@
       <c r="CE8" s="4"/>
       <c r="CF8" s="4"/>
       <c r="CG8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>137</v>
+      <c r="A9" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -3009,93 +3009,93 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AR9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BJ9" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
@@ -3110,13 +3110,13 @@
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
       <c r="BW9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BX9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BY9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
@@ -3126,38 +3126,38 @@
       <c r="CE9" s="3"/>
       <c r="CF9" s="3"/>
       <c r="CG9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -3168,103 +3168,103 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AP10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC10" s="3" t="s">
+      <c r="BD10" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="BD10" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
@@ -3276,63 +3276,63 @@
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
       <c r="BT10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
       <c r="CB10" s="3"/>
       <c r="CC10" s="3"/>
       <c r="CD10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CE10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="CF10" s="3"/>
       <c r="CG10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -3343,114 +3343,114 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD11" s="3" t="s">
+      <c r="BE11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="BE11" s="3" t="s">
+      <c r="BG11" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="BH11" s="3"/>
       <c r="BI11" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
       <c r="BO11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BR11" s="3"/>
       <c r="BS11" s="3"/>
@@ -3468,33 +3468,33 @@
       <c r="CE11" s="3"/>
       <c r="CF11" s="3"/>
       <c r="CG11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3506,121 +3506,121 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AQ12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BB12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD12" s="3" t="s">
+      <c r="BF12" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="BE12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
       <c r="BI12" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BJ12" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BK12" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
       <c r="BO12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BP12" s="3"/>
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
       <c r="BS12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BT12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
@@ -3635,16 +3635,16 @@
       <c r="CE12" s="3"/>
       <c r="CF12" s="3"/>
       <c r="CG12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3700,7 +3700,7 @@
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
@@ -3730,16 +3730,16 @@
       <c r="CE13" s="3"/>
       <c r="CF13" s="3"/>
       <c r="CG13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3823,13 +3823,13 @@
       <c r="CE14" s="3"/>
       <c r="CF14" s="3"/>
       <c r="CG14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3914,27 +3914,27 @@
       <c r="CE15" s="4"/>
       <c r="CF15" s="4"/>
       <c r="CG15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3942,10 +3942,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -3956,31 +3956,31 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="X16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="Z16" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
@@ -3992,12 +3992,12 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
@@ -4010,22 +4010,22 @@
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
       <c r="BG16" s="3"/>
       <c r="BH16" s="3"/>
       <c r="BI16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="BJ16" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
       <c r="BM16" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BN16" s="3"/>
       <c r="BO16" s="3"/>
@@ -4047,40 +4047,40 @@
       <c r="CE16" s="3"/>
       <c r="CF16" s="3"/>
       <c r="CG16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -4091,31 +4091,31 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="Z17" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -4127,12 +4127,12 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
@@ -4144,25 +4144,25 @@
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BC17" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ17" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
       <c r="BM17" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BN17" s="3"/>
       <c r="BO17" s="3"/>
@@ -4184,38 +4184,38 @@
       <c r="CE17" s="3"/>
       <c r="CF17" s="3"/>
       <c r="CG17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -4227,44 +4227,44 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="Z18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
@@ -4279,20 +4279,20 @@
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BC18" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
       <c r="BG18" s="3"/>
       <c r="BH18" s="3"/>
       <c r="BI18" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BJ18" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
@@ -4317,31 +4317,31 @@
       <c r="CE18" s="3"/>
       <c r="CF18" s="3"/>
       <c r="CG18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -4356,37 +4356,37 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -4403,17 +4403,17 @@
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
       <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
       <c r="BI19" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BJ19" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
@@ -4421,7 +4421,7 @@
       <c r="BN19" s="3"/>
       <c r="BO19" s="3"/>
       <c r="BP19" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BQ19" s="3"/>
       <c r="BR19" s="3"/>
@@ -4440,13 +4440,13 @@
       <c r="CE19" s="3"/>
       <c r="CF19" s="3"/>
       <c r="CG19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4454,7 +4454,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -4478,7 +4478,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -4491,7 +4491,7 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -4520,7 +4520,7 @@
       <c r="BN20" s="3"/>
       <c r="BO20" s="3"/>
       <c r="BP20" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
@@ -4539,13 +4539,13 @@
       <c r="CE20" s="3"/>
       <c r="CF20" s="3"/>
       <c r="CG20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4613,7 +4613,7 @@
       <c r="BN21" s="3"/>
       <c r="BO21" s="3"/>
       <c r="BP21" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BQ21" s="3"/>
       <c r="BR21" s="3"/>
@@ -4632,13 +4632,13 @@
       <c r="CE21" s="3"/>
       <c r="CF21" s="3"/>
       <c r="CG21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4723,90 +4723,90 @@
       <c r="CE22" s="4"/>
       <c r="CF22" s="4"/>
       <c r="CG22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>230</v>
+      <c r="A23" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
@@ -4818,13 +4818,13 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -4836,7 +4836,7 @@
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BC23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
@@ -4844,7 +4844,7 @@
       <c r="BG23" s="3"/>
       <c r="BH23" s="3"/>
       <c r="BI23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
@@ -4855,22 +4855,22 @@
       <c r="BP23" s="3"/>
       <c r="BQ23" s="3"/>
       <c r="BR23" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BS23" s="3"/>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BW23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BX23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BY23" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BZ23" s="3"/>
       <c r="CA23" s="3"/>
@@ -4880,112 +4880,112 @@
       <c r="CE23" s="3"/>
       <c r="CF23" s="3"/>
       <c r="CG23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
@@ -4997,10 +4997,10 @@
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BC24" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BD24" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
@@ -5012,7 +5012,7 @@
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
       <c r="BN24" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
@@ -5027,7 +5027,7 @@
       <c r="BY24" s="3"/>
       <c r="BZ24" s="3"/>
       <c r="CA24" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="CB24" s="3"/>
       <c r="CC24" s="3"/>
@@ -5035,106 +5035,106 @@
       <c r="CE24" s="3"/>
       <c r="CF24" s="3"/>
       <c r="CG24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y25" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
@@ -5150,17 +5150,17 @@
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BD25" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
       <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
@@ -5186,89 +5186,89 @@
       <c r="CE25" s="3"/>
       <c r="CF25" s="3"/>
       <c r="CG25" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF26" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF26" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -5279,10 +5279,10 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
@@ -5297,10 +5297,10 @@
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BD26" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BE26" s="3"/>
       <c r="BF26" s="3"/>
@@ -5314,7 +5314,7 @@
       <c r="BN26" s="3"/>
       <c r="BO26" s="3"/>
       <c r="BP26" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
@@ -5322,16 +5322,16 @@
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
       <c r="BV26" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BW26" s="3"/>
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
       <c r="BZ26" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CA26" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="CB26" s="3"/>
       <c r="CC26" s="3"/>
@@ -5339,13 +5339,13 @@
       <c r="CE26" s="3"/>
       <c r="CF26" s="3"/>
       <c r="CG26" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5375,11 +5375,11 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
@@ -5417,7 +5417,7 @@
       <c r="BN27" s="3"/>
       <c r="BO27" s="3"/>
       <c r="BP27" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BQ27" s="3"/>
       <c r="BR27" s="3"/>
@@ -5436,13 +5436,13 @@
       <c r="CE27" s="3"/>
       <c r="CF27" s="3"/>
       <c r="CG27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5527,13 +5527,13 @@
       <c r="CE28" s="3"/>
       <c r="CF28" s="3"/>
       <c r="CG28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5618,25 +5618,25 @@
       <c r="CE29" s="4"/>
       <c r="CF29" s="4"/>
       <c r="CG29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -5644,10 +5644,10 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -5658,48 +5658,48 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
@@ -5710,10 +5710,10 @@
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BC30" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
@@ -5721,7 +5721,7 @@
       <c r="BG30" s="3"/>
       <c r="BH30" s="3"/>
       <c r="BI30" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
@@ -5747,36 +5747,36 @@
       <c r="CE30" s="3"/>
       <c r="CF30" s="3"/>
       <c r="CG30" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -5787,50 +5787,50 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL31" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
@@ -5842,26 +5842,26 @@
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BD31" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BJ31" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BK31" s="3"/>
       <c r="BL31" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BM31" s="3"/>
       <c r="BN31" s="3"/>
@@ -5884,33 +5884,33 @@
       <c r="CE31" s="3"/>
       <c r="CF31" s="3"/>
       <c r="CG31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5922,29 +5922,29 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
@@ -5952,13 +5952,13 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
@@ -5973,26 +5973,26 @@
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
       <c r="BC32" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BD32" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BJ32" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BK32" s="3"/>
       <c r="BL32" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BM32" s="3"/>
       <c r="BN32" s="3"/>
@@ -6015,33 +6015,33 @@
       <c r="CE32" s="3"/>
       <c r="CF32" s="3"/>
       <c r="CG32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -6055,23 +6055,23 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF33" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF33" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -6079,7 +6079,7 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
@@ -6098,16 +6098,16 @@
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
       <c r="BC33" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD33" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BF33" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="BD33" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE33" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BF33" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
@@ -6115,7 +6115,7 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
       <c r="BL33" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BM33" s="3"/>
       <c r="BN33" s="3"/>
@@ -6138,21 +6138,21 @@
       <c r="CE33" s="3"/>
       <c r="CF33" s="3"/>
       <c r="CG33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -6173,16 +6173,16 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
@@ -6211,7 +6211,7 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
       <c r="BE34" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BF34" s="3"/>
       <c r="BG34" s="3"/>
@@ -6241,18 +6241,18 @@
       <c r="CE34" s="3"/>
       <c r="CF34" s="3"/>
       <c r="CG34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6274,14 +6274,14 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -6310,7 +6310,7 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BF35" s="3"/>
       <c r="BG35" s="3"/>
@@ -6340,13 +6340,13 @@
       <c r="CE35" s="3"/>
       <c r="CF35" s="3"/>
       <c r="CG35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -6431,18 +6431,18 @@
       <c r="CE36" s="4"/>
       <c r="CF36" s="4"/>
       <c r="CG36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>316</v>
+      <c r="A37" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -6453,10 +6453,10 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -6468,18 +6468,18 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
@@ -6489,14 +6489,14 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
       <c r="AJ37" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK37" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
@@ -6504,7 +6504,7 @@
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
@@ -6516,28 +6516,28 @@
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
       <c r="BC37" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BD37" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BG37" s="3"/>
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BK37" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
       <c r="BN37" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BO37" s="3"/>
       <c r="BP37" s="3"/>
@@ -6558,36 +6558,36 @@
       <c r="CE37" s="3"/>
       <c r="CF37" s="3"/>
       <c r="CG37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -6599,49 +6599,49 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF38" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AK38" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
@@ -6653,10 +6653,10 @@
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BD38" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
@@ -6664,13 +6664,13 @@
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
       <c r="BM38" s="3"/>
       <c r="BN38" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BO38" s="3"/>
       <c r="BP38" s="3"/>
@@ -6691,22 +6691,22 @@
       <c r="CE38" s="3"/>
       <c r="CF38" s="3"/>
       <c r="CG38" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -6714,7 +6714,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -6728,34 +6728,34 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF39" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
@@ -6775,7 +6775,7 @@
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
       <c r="BD39" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
@@ -6783,22 +6783,22 @@
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BK39" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BL39" s="3"/>
       <c r="BM39" s="3"/>
       <c r="BN39" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BO39" s="3"/>
       <c r="BP39" s="3"/>
       <c r="BQ39" s="3"/>
       <c r="BR39" s="3"/>
       <c r="BS39" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BT39" s="3"/>
       <c r="BU39" s="3"/>
@@ -6813,23 +6813,23 @@
       <c r="CD39" s="3"/>
       <c r="CE39" s="3"/>
       <c r="CF39" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="CG39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -6849,18 +6849,18 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
@@ -6868,7 +6868,7 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
@@ -6890,7 +6890,7 @@
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
       <c r="BD40" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
@@ -6899,10 +6899,10 @@
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BL40" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BM40" s="3"/>
       <c r="BN40" s="3"/>
@@ -6925,13 +6925,13 @@
       <c r="CE40" s="3"/>
       <c r="CF40" s="3"/>
       <c r="CG40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6988,7 +6988,7 @@
       <c r="BC41" s="3"/>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BF41" s="3"/>
       <c r="BG41" s="3"/>
@@ -7018,13 +7018,13 @@
       <c r="CE41" s="3"/>
       <c r="CF41" s="3"/>
       <c r="CG41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -7109,13 +7109,13 @@
       <c r="CE42" s="3"/>
       <c r="CF42" s="3"/>
       <c r="CG42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -7200,20 +7200,20 @@
       <c r="CE43" s="4"/>
       <c r="CF43" s="4"/>
       <c r="CG43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>84</v>
+      <c r="A44" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7223,7 +7223,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -7235,10 +7235,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
@@ -7248,16 +7248,16 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
@@ -7267,7 +7267,7 @@
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
@@ -7279,17 +7279,17 @@
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
       <c r="BC44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE44" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="BD44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE44" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="BF44" s="3"/>
       <c r="BG44" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
@@ -7307,13 +7307,13 @@
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
       <c r="BW44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BX44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BY44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BZ44" s="3"/>
       <c r="CA44" s="3"/>
@@ -7323,18 +7323,18 @@
       <c r="CE44" s="3"/>
       <c r="CF44" s="3"/>
       <c r="CG44" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7344,7 +7344,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -7356,10 +7356,10 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
@@ -7368,33 +7368,33 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF45" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
@@ -7406,21 +7406,21 @@
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BD45" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BE45" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BF45" s="3"/>
       <c r="BG45" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BH45" s="3"/>
       <c r="BI45" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
@@ -7436,13 +7436,13 @@
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
       <c r="BW45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BX45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BY45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BZ45" s="3"/>
       <c r="CA45" s="3"/>
@@ -7452,38 +7452,38 @@
       <c r="CE45" s="3"/>
       <c r="CF45" s="3"/>
       <c r="CG45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -7494,24 +7494,24 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
@@ -7519,18 +7519,18 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AP46" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
@@ -7545,17 +7545,17 @@
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
       <c r="BC46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BD46" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
       <c r="BG46" s="3"/>
       <c r="BH46" s="3"/>
       <c r="BI46" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
@@ -7581,38 +7581,38 @@
       <c r="CE46" s="3"/>
       <c r="CF46" s="3"/>
       <c r="CG46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -7623,7 +7623,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -7631,11 +7631,11 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
@@ -7646,14 +7646,14 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AP47" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
@@ -7668,17 +7668,17 @@
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
       <c r="BC47" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BD47" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
       <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
       <c r="BI47" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
@@ -7687,7 +7687,7 @@
       <c r="BN47" s="3"/>
       <c r="BO47" s="3"/>
       <c r="BP47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BQ47" s="3"/>
       <c r="BR47" s="3"/>
@@ -7706,25 +7706,25 @@
       <c r="CE47" s="3"/>
       <c r="CF47" s="3"/>
       <c r="CG47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -7745,10 +7745,10 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AD48" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
@@ -7778,7 +7778,7 @@
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
       <c r="BF48" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BG48" s="3"/>
       <c r="BH48" s="3"/>
@@ -7790,13 +7790,13 @@
       <c r="BN48" s="3"/>
       <c r="BO48" s="3"/>
       <c r="BP48" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BQ48" s="3"/>
       <c r="BR48" s="3"/>
       <c r="BS48" s="3"/>
       <c r="BT48" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
@@ -7811,13 +7811,13 @@
       <c r="CE48" s="3"/>
       <c r="CF48" s="3"/>
       <c r="CG48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7902,13 +7902,13 @@
       <c r="CE49" s="3"/>
       <c r="CF49" s="3"/>
       <c r="CG49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -7993,25 +7993,25 @@
       <c r="CE50" s="4"/>
       <c r="CF50" s="4"/>
       <c r="CG50" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>137</v>
+      <c r="A51" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -8019,10 +8019,10 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -8033,101 +8033,101 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF51" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
       <c r="AJ51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AV51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AW51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AX51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AY51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AZ51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BA51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BB51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BC51" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="BD51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BE51" s="3"/>
       <c r="BF51" s="3"/>
       <c r="BG51" s="3"/>
       <c r="BH51" s="3"/>
       <c r="BI51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BJ51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK51" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL51" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="BJ51" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK51" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL51" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="BM51" s="3"/>
       <c r="BN51" s="3"/>
@@ -8140,13 +8140,13 @@
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
       <c r="BW51" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="BX51" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="BY51" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="BZ51" s="3"/>
       <c r="CA51" s="3"/>
@@ -8156,38 +8156,38 @@
       <c r="CE51" s="3"/>
       <c r="CF51" s="3"/>
       <c r="CG51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -8198,108 +8198,108 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W52" s="3"/>
       <c r="X52" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF52" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
       <c r="AJ52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AV52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AW52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AX52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AY52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AZ52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BA52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BB52" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BC52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BD52" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BE52" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="BF52" s="3"/>
       <c r="BG52" s="3"/>
       <c r="BH52" s="3"/>
       <c r="BI52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BJ52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
       <c r="BN52" s="3"/>
       <c r="BO52" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BP52" s="3"/>
       <c r="BQ52" s="3"/>
@@ -8309,13 +8309,13 @@
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
       <c r="BW52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BX52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BY52" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BZ52" s="3"/>
       <c r="CA52" s="3"/>
@@ -8325,38 +8325,38 @@
       <c r="CE52" s="3"/>
       <c r="CF52" s="3"/>
       <c r="CG52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -8367,119 +8367,119 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AF53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
       <c r="AJ53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL53" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AQ53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AV53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AW53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AX53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AY53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AZ53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BA53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BB53" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BC53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="BD53" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BE53" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BF53" s="3"/>
       <c r="BG53" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BH53" s="3"/>
       <c r="BI53" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="BJ53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
       <c r="BO53" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BP53" s="3"/>
       <c r="BQ53" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BR53" s="3"/>
       <c r="BS53" s="3"/>
       <c r="BT53" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
@@ -8494,38 +8494,38 @@
       <c r="CE53" s="3"/>
       <c r="CF53" s="3"/>
       <c r="CG53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -8536,21 +8536,21 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
@@ -8558,94 +8558,94 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
       <c r="AJ54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AK54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL54" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AM54" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AV54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AW54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AX54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AY54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AZ54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BA54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BB54" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BC54" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BD54" s="3"/>
       <c r="BE54" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BF54" s="3"/>
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
       <c r="BO54" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BP54" s="3"/>
       <c r="BQ54" s="3"/>
       <c r="BR54" s="3"/>
       <c r="BS54" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BT54" s="3"/>
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
       <c r="BW54" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BX54" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BY54" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BZ54" s="3"/>
       <c r="CA54" s="3"/>
@@ -8655,16 +8655,16 @@
       <c r="CE54" s="3"/>
       <c r="CF54" s="3"/>
       <c r="CG54" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -8720,7 +8720,7 @@
       <c r="BC55" s="3"/>
       <c r="BD55" s="3"/>
       <c r="BE55" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="BF55" s="3"/>
       <c r="BG55" s="3"/>
@@ -8732,7 +8732,7 @@
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
       <c r="BO55" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BP55" s="3"/>
       <c r="BQ55" s="3"/>
@@ -8752,16 +8752,16 @@
       <c r="CE55" s="3"/>
       <c r="CF55" s="3"/>
       <c r="CG55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -8845,13 +8845,13 @@
       <c r="CE56" s="3"/>
       <c r="CF56" s="3"/>
       <c r="CG56" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -8936,24 +8936,24 @@
       <c r="CE57" s="4"/>
       <c r="CF57" s="4"/>
       <c r="CG57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>182</v>
+      <c r="A58" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -8963,7 +8963,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -8974,29 +8974,29 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W58" s="3"/>
       <c r="X58" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF58" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
@@ -9008,12 +9008,12 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
       <c r="AS58" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
@@ -9026,30 +9026,30 @@
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
       <c r="BD58" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BE58" s="3"/>
       <c r="BF58" s="3"/>
       <c r="BG58" s="3"/>
       <c r="BH58" s="3"/>
       <c r="BI58" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BJ58" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BK58" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BL58" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BM58" s="3"/>
       <c r="BN58" s="3"/>
       <c r="BO58" s="3"/>
       <c r="BP58" s="3"/>
       <c r="BQ58" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BR58" s="3"/>
       <c r="BS58" s="3"/>
@@ -9067,36 +9067,36 @@
       <c r="CE58" s="3"/>
       <c r="CF58" s="3"/>
       <c r="CG58" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -9107,31 +9107,31 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="W59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="Z59" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF59" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
@@ -9142,18 +9142,18 @@
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AP59" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
       <c r="AS59" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
@@ -9164,22 +9164,22 @@
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
       <c r="BC59" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BD59" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BE59" s="3"/>
       <c r="BF59" s="3"/>
       <c r="BG59" s="3"/>
       <c r="BH59" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BI59" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ59" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
@@ -9188,7 +9188,7 @@
       <c r="BO59" s="3"/>
       <c r="BP59" s="3"/>
       <c r="BQ59" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BR59" s="3"/>
       <c r="BS59" s="3"/>
@@ -9201,31 +9201,31 @@
       <c r="BZ59" s="3"/>
       <c r="CA59" s="3"/>
       <c r="CB59" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="CC59" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="CD59" s="3"/>
       <c r="CE59" s="3"/>
       <c r="CF59" s="3"/>
       <c r="CG59" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -9243,42 +9243,42 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X60" s="3"/>
       <c r="Y60" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF60" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AP60" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
@@ -9293,26 +9293,26 @@
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
       <c r="BC60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BD60" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BE60" s="3"/>
       <c r="BF60" s="3"/>
       <c r="BG60" s="3"/>
       <c r="BH60" s="3"/>
       <c r="BI60" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="BJ60" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="BK60" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="BJ60" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="BK60" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="BL60" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
@@ -9321,11 +9321,11 @@
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
       <c r="BS60" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BT60" s="3"/>
       <c r="BU60" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="BV60" s="3"/>
       <c r="BW60" s="3"/>
@@ -9339,20 +9339,20 @@
       <c r="CE60" s="3"/>
       <c r="CF60" s="3"/>
       <c r="CG60" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -9370,39 +9370,39 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X61" s="3"/>
       <c r="Y61" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO61" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
@@ -9424,25 +9424,25 @@
       <c r="BG61" s="3"/>
       <c r="BH61" s="3"/>
       <c r="BI61" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BK61" s="3"/>
       <c r="BL61" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
       <c r="BO61" s="3"/>
       <c r="BP61" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BQ61" s="3"/>
       <c r="BR61" s="3"/>
       <c r="BS61" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
@@ -9458,13 +9458,13 @@
       <c r="CE61" s="3"/>
       <c r="CF61" s="3"/>
       <c r="CG61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -9472,7 +9472,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -9496,7 +9496,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
@@ -9536,7 +9536,7 @@
       <c r="BN62" s="3"/>
       <c r="BO62" s="3"/>
       <c r="BP62" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BQ62" s="3"/>
       <c r="BR62" s="3"/>
@@ -9555,13 +9555,13 @@
       <c r="CE62" s="3"/>
       <c r="CF62" s="3"/>
       <c r="CG62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -9629,7 +9629,7 @@
       <c r="BN63" s="3"/>
       <c r="BO63" s="3"/>
       <c r="BP63" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BQ63" s="3"/>
       <c r="BR63" s="3"/>
@@ -9648,13 +9648,13 @@
       <c r="CE63" s="3"/>
       <c r="CF63" s="3"/>
       <c r="CG63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -9739,93 +9739,93 @@
       <c r="CE64" s="4"/>
       <c r="CF64" s="4"/>
       <c r="CG64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>230</v>
+      <c r="A65" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W65" s="3"/>
       <c r="X65" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
       <c r="AE65" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF65" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
@@ -9836,15 +9836,15 @@
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP65" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
       <c r="AS65" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
@@ -9856,7 +9856,7 @@
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
       <c r="BC65" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BD65" s="3"/>
       <c r="BE65" s="3"/>
@@ -9878,10 +9878,10 @@
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
       <c r="BW65" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX65" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BY65" s="3"/>
       <c r="BZ65" s="3"/>
@@ -9891,123 +9891,123 @@
       <c r="CD65" s="3"/>
       <c r="CE65" s="3"/>
       <c r="CF65" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="CG65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
       <c r="AE66" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG66" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AH66" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
       <c r="AS66" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
@@ -10020,14 +10020,14 @@
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
       <c r="BD66" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3"/>
       <c r="BG66" s="3"/>
       <c r="BH66" s="3"/>
       <c r="BI66" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BJ66" s="3"/>
       <c r="BK66" s="3"/>
@@ -10053,109 +10053,109 @@
       <c r="CE66" s="3"/>
       <c r="CF66" s="3"/>
       <c r="CG66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AE67" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF67" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
       <c r="AK67" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP67" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
@@ -10170,17 +10170,17 @@
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
       <c r="BC67" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BD67" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BE67" s="3"/>
       <c r="BF67" s="3"/>
       <c r="BG67" s="3"/>
       <c r="BH67" s="3"/>
       <c r="BI67" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BJ67" s="3"/>
       <c r="BK67" s="3"/>
@@ -10194,14 +10194,14 @@
       <c r="BS67" s="3"/>
       <c r="BT67" s="3"/>
       <c r="BU67" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BV67" s="3"/>
       <c r="BW67" s="3"/>
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
       <c r="BZ67" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CA67" s="3"/>
       <c r="CB67" s="3"/>
@@ -10210,95 +10210,95 @@
       <c r="CE67" s="3"/>
       <c r="CF67" s="3"/>
       <c r="CG67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AC68" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AD68" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AE68" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF68" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
@@ -10309,7 +10309,7 @@
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
@@ -10325,10 +10325,10 @@
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
       <c r="BC68" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BD68" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BE68" s="3"/>
       <c r="BF68" s="3"/>
@@ -10340,11 +10340,11 @@
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
       <c r="BN68" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BO68" s="3"/>
       <c r="BP68" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BQ68" s="3"/>
       <c r="BR68" s="3"/>
@@ -10357,7 +10357,7 @@
       <c r="BY68" s="3"/>
       <c r="BZ68" s="3"/>
       <c r="CA68" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="CB68" s="3"/>
       <c r="CC68" s="3"/>
@@ -10365,13 +10365,13 @@
       <c r="CE68" s="3"/>
       <c r="CF68" s="3"/>
       <c r="CG68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -10401,7 +10401,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
@@ -10441,7 +10441,7 @@
       <c r="BN69" s="3"/>
       <c r="BO69" s="3"/>
       <c r="BP69" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BQ69" s="3"/>
       <c r="BR69" s="3"/>
@@ -10460,13 +10460,13 @@
       <c r="CE69" s="3"/>
       <c r="CF69" s="3"/>
       <c r="CG69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -10551,13 +10551,13 @@
       <c r="CE70" s="3"/>
       <c r="CF70" s="3"/>
       <c r="CG70" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -10642,21 +10642,21 @@
       <c r="CE71" s="4"/>
       <c r="CF71" s="4"/>
       <c r="CG71" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>262</v>
+      <c r="A72" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -10666,10 +10666,10 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -10680,7 +10680,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
@@ -10688,34 +10688,34 @@
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
       <c r="AE72" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
       <c r="AS72" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
@@ -10727,7 +10727,7 @@
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
       <c r="BC72" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
@@ -10735,7 +10735,7 @@
       <c r="BG72" s="3"/>
       <c r="BH72" s="3"/>
       <c r="BI72" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BJ72" s="3"/>
       <c r="BK72" s="3"/>
@@ -10743,7 +10743,7 @@
       <c r="BM72" s="3"/>
       <c r="BN72" s="3"/>
       <c r="BO72" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="BP72" s="3"/>
       <c r="BQ72" s="3"/>
@@ -10763,19 +10763,19 @@
       <c r="CE72" s="3"/>
       <c r="CF72" s="3"/>
       <c r="CG72" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -10785,10 +10785,10 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -10799,48 +10799,48 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W73" s="3"/>
       <c r="X73" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF73" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
       <c r="AJ73" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK73" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AL73" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
       <c r="AS73" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
@@ -10852,31 +10852,31 @@
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
       <c r="BC73" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BD73" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BE73" s="3"/>
       <c r="BF73" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="BG73" s="3"/>
       <c r="BH73" s="3"/>
       <c r="BI73" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BJ73" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BK73" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BL73" s="3"/>
       <c r="BM73" s="3"/>
       <c r="BN73" s="3"/>
       <c r="BO73" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BP73" s="3"/>
       <c r="BQ73" s="3"/>
@@ -10896,23 +10896,23 @@
       <c r="CE73" s="3"/>
       <c r="CF73" s="3"/>
       <c r="CG73" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -10921,7 +10921,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -10932,27 +10932,27 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W74" s="3"/>
       <c r="X74" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF74" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
@@ -10960,18 +10960,18 @@
       <c r="AJ74" s="3"/>
       <c r="AK74" s="3"/>
       <c r="AL74" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
       <c r="AS74" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
@@ -10983,31 +10983,31 @@
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
       <c r="BC74" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BD74" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BE74" s="3"/>
       <c r="BF74" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BG74" s="3"/>
       <c r="BH74" s="3"/>
       <c r="BI74" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BJ74" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BK74" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
       <c r="BN74" s="3"/>
       <c r="BO74" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BP74" s="3"/>
       <c r="BQ74" s="3"/>
@@ -11027,23 +11027,23 @@
       <c r="CE74" s="3"/>
       <c r="CF74" s="3"/>
       <c r="CG74" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -11063,22 +11063,22 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y75" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z75" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AE75" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
@@ -11087,7 +11087,7 @@
       <c r="AJ75" s="3"/>
       <c r="AK75" s="3"/>
       <c r="AL75" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
@@ -11106,27 +11106,27 @@
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
       <c r="BC75" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BD75" s="3"/>
       <c r="BE75" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BF75" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BG75" s="3"/>
       <c r="BH75" s="3"/>
       <c r="BI75" s="3"/>
       <c r="BJ75" s="3"/>
       <c r="BK75" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
       <c r="BO75" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BP75" s="3"/>
       <c r="BQ75" s="3"/>
@@ -11146,21 +11146,21 @@
       <c r="CE75" s="3"/>
       <c r="CF75" s="3"/>
       <c r="CG75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -11181,16 +11181,16 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z76" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
@@ -11219,7 +11219,7 @@
       <c r="BC76" s="3"/>
       <c r="BD76" s="3"/>
       <c r="BE76" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BF76" s="3"/>
       <c r="BG76" s="3"/>
@@ -11249,19 +11249,19 @@
       <c r="CE76" s="3"/>
       <c r="CF76" s="3"/>
       <c r="CG76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -11282,10 +11282,10 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
@@ -11346,13 +11346,13 @@
       <c r="CE77" s="3"/>
       <c r="CF77" s="3"/>
       <c r="CG77" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -11437,33 +11437,33 @@
       <c r="CE78" s="4"/>
       <c r="CF78" s="4"/>
       <c r="CG78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>316</v>
+      <c r="A79" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -11476,47 +11476,47 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
       <c r="AE79" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AK79" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL79" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
       <c r="AP79" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
@@ -11529,12 +11529,12 @@
       <c r="BB79" s="3"/>
       <c r="BC79" s="3"/>
       <c r="BD79" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BE79" s="3"/>
       <c r="BF79" s="3"/>
       <c r="BG79" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH79" s="3"/>
       <c r="BI79" s="3"/>
@@ -11562,33 +11562,33 @@
       <c r="CE79" s="3"/>
       <c r="CF79" s="3"/>
       <c r="CG79" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -11601,49 +11601,49 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X80" s="3"/>
       <c r="Y80" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
       <c r="AE80" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AF80" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AK80" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AL80" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
       <c r="AP80" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
       <c r="AS80" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
@@ -11656,10 +11656,10 @@
       <c r="BB80" s="3"/>
       <c r="BC80" s="3"/>
       <c r="BD80" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BE80" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="BF80" s="3"/>
       <c r="BG80" s="3"/>
@@ -11689,16 +11689,16 @@
       <c r="CE80" s="3"/>
       <c r="CF80" s="3"/>
       <c r="CG80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -11709,7 +11709,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -11722,40 +11722,40 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z81" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
       <c r="AJ81" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AK81" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
@@ -11771,28 +11771,28 @@
       <c r="BB81" s="3"/>
       <c r="BC81" s="3"/>
       <c r="BD81" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BE81" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="BF81" s="3"/>
       <c r="BG81" s="3"/>
       <c r="BH81" s="3"/>
       <c r="BI81" s="3"/>
       <c r="BJ81" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BK81" s="3"/>
       <c r="BL81" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BM81" s="3"/>
       <c r="BN81" s="3"/>
       <c r="BO81" s="3"/>
       <c r="BP81" s="3"/>
       <c r="BQ81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BR81" s="3"/>
       <c r="BS81" s="3"/>
@@ -11804,7 +11804,7 @@
       <c r="BY81" s="3"/>
       <c r="BZ81" s="3"/>
       <c r="CA81" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
@@ -11812,16 +11812,16 @@
       <c r="CE81" s="3"/>
       <c r="CF81" s="3"/>
       <c r="CG81" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -11845,14 +11845,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z82" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
@@ -11882,23 +11882,23 @@
       <c r="BB82" s="3"/>
       <c r="BC82" s="3"/>
       <c r="BD82" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BE82" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BF82" s="3"/>
       <c r="BG82" s="3"/>
       <c r="BH82" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BI82" s="3"/>
       <c r="BJ82" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BK82" s="3"/>
       <c r="BL82" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BM82" s="3"/>
       <c r="BN82" s="3"/>
@@ -11915,7 +11915,7 @@
       <c r="BY82" s="3"/>
       <c r="BZ82" s="3"/>
       <c r="CA82" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
@@ -11923,13 +11923,13 @@
       <c r="CE82" s="3"/>
       <c r="CF82" s="3"/>
       <c r="CG82" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -11986,7 +11986,7 @@
       <c r="BC83" s="3"/>
       <c r="BD83" s="3"/>
       <c r="BE83" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BF83" s="3"/>
       <c r="BG83" s="3"/>
@@ -12016,13 +12016,13 @@
       <c r="CE83" s="3"/>
       <c r="CF83" s="3"/>
       <c r="CG83" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -12107,13 +12107,13 @@
       <c r="CE84" s="3"/>
       <c r="CF84" s="3"/>
       <c r="CG84" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -12198,11 +12198,16 @@
       <c r="CE85" s="3"/>
       <c r="CF85" s="3"/>
       <c r="CG85" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="A37:A43"/>
@@ -12210,11 +12215,6 @@
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studia Code programs\albom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AF5AD-0009-4C5A-85E2-EE217DD9649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB0F3D-DC54-4436-B686-A49BAF6E9EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1650" windowWidth="17490" windowHeight="9570" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,17 +1393,17 @@
     <t>Технологии защиты информационных систем Миронов А.Ю. 104-2к</t>
   </si>
   <si>
-    <t>Пакеты</t>
-  </si>
-  <si>
     <t>Каво</t>
+  </si>
+  <si>
+    <t>Группа КВ-Б21-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -1417,6 +1417,14 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1512,10 +1520,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1541,8 +1550,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1886,7 +1897,7 @@
   <dimension ref="A1:CG85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1908,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -12203,11 +12214,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="A37:A43"/>
@@ -12215,8 +12221,16 @@
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="http://localhost:3000/schedule/group/%D0%93%D1%80%D1%83%D0%BF%D0%BF%D0%B0 %D0%9A%D0%92-%D0%9121-2" xr:uid="{3162092C-1360-4DC5-9542-24F4D8564912}"/>
+  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup pageOrder="overThenDown" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studia Code programs\albom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB0F3D-DC54-4436-B686-A49BAF6E9EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A2E3A-F300-4902-99E7-D1888B5229A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="1650" windowWidth="17490" windowHeight="9570" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,6 +1541,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1550,7 +1551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1896,8 +1896,8 @@
   </sheetPr>
   <dimension ref="A1:CG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1921,7 +1921,7 @@
       <c r="D1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>458</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="2" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="3" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>94</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="4" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>109</v>
       </c>
@@ -2560,7 +2560,7 @@
       </c>
     </row>
     <row r="5" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>120</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="6" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="7" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="8" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>134</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
     </row>
     <row r="9" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="10" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>94</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
     </row>
     <row r="11" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>109</v>
       </c>
@@ -3483,7 +3483,7 @@
       </c>
     </row>
     <row r="12" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>120</v>
       </c>
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="13" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>128</v>
       </c>
@@ -3745,7 +3745,7 @@
       </c>
     </row>
     <row r="14" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="15" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
         <v>134</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
     </row>
     <row r="16" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4062,7 +4062,7 @@
       </c>
     </row>
     <row r="17" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>94</v>
       </c>
@@ -4199,7 +4199,7 @@
       </c>
     </row>
     <row r="18" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>109</v>
       </c>
@@ -4332,7 +4332,7 @@
       </c>
     </row>
     <row r="19" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>120</v>
       </c>
@@ -4455,7 +4455,7 @@
       </c>
     </row>
     <row r="20" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
         <v>128</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
     </row>
     <row r="21" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3" t="s">
         <v>132</v>
       </c>
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="22" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
         <v>134</v>
       </c>
@@ -4738,7 +4738,7 @@
       </c>
     </row>
     <row r="23" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="24" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
     </row>
     <row r="25" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
         <v>109</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="26" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>120</v>
       </c>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="27" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>128</v>
       </c>
@@ -5451,7 +5451,7 @@
       </c>
     </row>
     <row r="28" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>132</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="29" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="4" t="s">
         <v>134</v>
       </c>
@@ -5633,7 +5633,7 @@
       </c>
     </row>
     <row r="30" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -5762,7 +5762,7 @@
       </c>
     </row>
     <row r="31" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
@@ -5899,7 +5899,7 @@
       </c>
     </row>
     <row r="32" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>109</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
     </row>
     <row r="33" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
@@ -6153,7 +6153,7 @@
       </c>
     </row>
     <row r="34" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
         <v>128</v>
       </c>
@@ -6256,7 +6256,7 @@
       </c>
     </row>
     <row r="35" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>132</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
     </row>
     <row r="36" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="4" t="s">
         <v>134</v>
       </c>
@@ -6446,7 +6446,7 @@
       </c>
     </row>
     <row r="37" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="38" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>94</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
     </row>
     <row r="39" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3" t="s">
         <v>109</v>
       </c>
@@ -6831,7 +6831,7 @@
       </c>
     </row>
     <row r="40" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3" t="s">
         <v>120</v>
       </c>
@@ -6940,7 +6940,7 @@
       </c>
     </row>
     <row r="41" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>128</v>
       </c>
@@ -7033,7 +7033,7 @@
       </c>
     </row>
     <row r="42" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3" t="s">
         <v>132</v>
       </c>
@@ -7124,7 +7124,7 @@
       </c>
     </row>
     <row r="43" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
     </row>
     <row r="44" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7338,7 +7338,7 @@
       </c>
     </row>
     <row r="45" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>94</v>
       </c>
@@ -7467,7 +7467,7 @@
       </c>
     </row>
     <row r="46" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3" t="s">
         <v>109</v>
       </c>
@@ -7596,7 +7596,7 @@
       </c>
     </row>
     <row r="47" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3" t="s">
         <v>120</v>
       </c>
@@ -7721,7 +7721,7 @@
       </c>
     </row>
     <row r="48" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3" t="s">
         <v>128</v>
       </c>
@@ -7826,7 +7826,7 @@
       </c>
     </row>
     <row r="49" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
         <v>132</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
     </row>
     <row r="50" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
@@ -8008,7 +8008,7 @@
       </c>
     </row>
     <row r="51" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -8171,7 +8171,7 @@
       </c>
     </row>
     <row r="52" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
     </row>
     <row r="53" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3" t="s">
         <v>109</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
     </row>
     <row r="54" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3" t="s">
         <v>120</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="55" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
         <v>128</v>
       </c>
@@ -8767,7 +8767,7 @@
       </c>
     </row>
     <row r="56" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3" t="s">
         <v>132</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
     </row>
     <row r="57" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="4" t="s">
         <v>134</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
     </row>
     <row r="58" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -9082,7 +9082,7 @@
       </c>
     </row>
     <row r="59" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3" t="s">
         <v>94</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
     </row>
     <row r="60" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3" t="s">
         <v>109</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
     </row>
     <row r="61" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3" t="s">
         <v>120</v>
       </c>
@@ -9473,7 +9473,7 @@
       </c>
     </row>
     <row r="62" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3" t="s">
         <v>128</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
     </row>
     <row r="63" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3" t="s">
         <v>132</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
     </row>
     <row r="64" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="4" t="s">
         <v>134</v>
       </c>
@@ -9754,7 +9754,7 @@
       </c>
     </row>
     <row r="65" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -9909,7 +9909,7 @@
       </c>
     </row>
     <row r="66" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3" t="s">
         <v>94</v>
       </c>
@@ -10068,7 +10068,7 @@
       </c>
     </row>
     <row r="67" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3" t="s">
         <v>109</v>
       </c>
@@ -10225,7 +10225,7 @@
       </c>
     </row>
     <row r="68" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3" t="s">
         <v>120</v>
       </c>
@@ -10380,7 +10380,7 @@
       </c>
     </row>
     <row r="69" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3" t="s">
         <v>128</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
     </row>
     <row r="70" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3" t="s">
         <v>132</v>
       </c>
@@ -10566,7 +10566,7 @@
       </c>
     </row>
     <row r="71" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="4" t="s">
         <v>134</v>
       </c>
@@ -10657,7 +10657,7 @@
       </c>
     </row>
     <row r="72" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -10778,7 +10778,7 @@
       </c>
     </row>
     <row r="73" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3" t="s">
         <v>94</v>
       </c>
@@ -10911,7 +10911,7 @@
       </c>
     </row>
     <row r="74" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="3" t="s">
         <v>109</v>
       </c>
@@ -11042,7 +11042,7 @@
       </c>
     </row>
     <row r="75" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3" t="s">
         <v>120</v>
       </c>
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="76" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3" t="s">
         <v>128</v>
       </c>
@@ -11264,7 +11264,7 @@
       </c>
     </row>
     <row r="77" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3" t="s">
         <v>132</v>
       </c>
@@ -11361,7 +11361,7 @@
       </c>
     </row>
     <row r="78" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="4" t="s">
         <v>134</v>
       </c>
@@ -11452,7 +11452,7 @@
       </c>
     </row>
     <row r="79" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -11577,7 +11577,7 @@
       </c>
     </row>
     <row r="80" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="3" t="s">
         <v>94</v>
       </c>
@@ -11704,7 +11704,7 @@
       </c>
     </row>
     <row r="81" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="3" t="s">
         <v>109</v>
       </c>
@@ -11827,7 +11827,7 @@
       </c>
     </row>
     <row r="82" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="3" t="s">
         <v>120</v>
       </c>
@@ -11938,7 +11938,7 @@
       </c>
     </row>
     <row r="83" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="3" t="s">
         <v>128</v>
       </c>
@@ -12031,7 +12031,7 @@
       </c>
     </row>
     <row r="84" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="3" t="s">
         <v>132</v>
       </c>
@@ -12122,7 +12122,7 @@
       </c>
     </row>
     <row r="85" spans="1:85" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="3" t="s">
         <v>134</v>
       </c>
@@ -12214,6 +12214,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="A37:A43"/>
@@ -12221,11 +12226,6 @@
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A64"/>
     <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" display="http://localhost:3000/schedule/group/%D0%93%D1%80%D1%83%D0%BF%D0%BF%D0%B0 %D0%9A%D0%92-%D0%9121-2" xr:uid="{3162092C-1360-4DC5-9542-24F4D8564912}"/>
